--- a/data/case1/9/Plm2_1.xlsx
+++ b/data/case1/9/Plm2_1.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.36082032051092483</v>
+        <v>-0.41859767129913905</v>
       </c>
       <c r="B1" s="0">
-        <v>0.36003727884258296</v>
+        <v>0.41755079501251657</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.24812440866788599</v>
+        <v>-0.30252466365537067</v>
       </c>
       <c r="B2" s="0">
-        <v>0.24601139911835013</v>
+        <v>0.2994743577225929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.14306405831754887</v>
+        <v>-0.18521289276790043</v>
       </c>
       <c r="B3" s="0">
-        <v>0.14256449859654197</v>
+        <v>0.18437734571409692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.1305644987386998</v>
+        <v>-0.17237734582996822</v>
       </c>
       <c r="B4" s="0">
-        <v>0.13013531806008416</v>
+        <v>0.17162573844325912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.12413531858590865</v>
+        <v>-0.16562573886973464</v>
       </c>
       <c r="B5" s="0">
-        <v>0.12329601075413166</v>
+        <v>0.16412363342086689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.011258256590391369</v>
+        <v>-0.093489297894644441</v>
       </c>
       <c r="B6" s="0">
-        <v>0.011251770503252434</v>
+        <v>0.093377975333595487</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.085352357096214249</v>
+        <v>-0.073377975854279853</v>
       </c>
       <c r="B7" s="0">
-        <v>0.085013029008107921</v>
+        <v>0.073095720991954494</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.068754717668078058</v>
+        <v>-0.053095721517526506</v>
       </c>
       <c r="B8" s="0">
-        <v>0.068363408357738464</v>
+        <v>0.052819961930305581</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.062363408912442075</v>
+        <v>-0.046819962383059632</v>
       </c>
       <c r="B9" s="0">
-        <v>0.062030205900499347</v>
+        <v>0.046572537082480103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056030206463255183</v>
+        <v>-0.024932185810328633</v>
       </c>
       <c r="B10" s="0">
-        <v>0.055983386176862382</v>
+        <v>0.024921150614581222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051483386729341163</v>
+        <v>-0.02042115106324971</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051403797967413567</v>
+        <v>0.02040285592167379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045403798532988038</v>
+        <v>-0.014402856379346574</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045154151377097218</v>
+        <v>0.014355570032673626</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039154151951068528</v>
+        <v>-0.0083555704922790852</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039086307637259843</v>
+        <v>0.0083472241500626154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027086308257557867</v>
+        <v>0.0036527753564499221</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027053705675591289</v>
+        <v>-0.0036536299268172812</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.02105370625415226</v>
+        <v>-0.021052955727864031</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021028068025612079</v>
+        <v>0.021027625449362652</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015028068606048661</v>
+        <v>-0.015027625910522424</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004359218779184</v>
+        <v>0.015004377787057432</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090043598016258386</v>
+        <v>-0.0090043782500899283</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999993947280643</v>
+        <v>0.0089999995197080906</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.10191287070364652</v>
+        <v>-0.10502613177972719</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10181012101540077</v>
+        <v>0.10491570803146999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.092810121538840828</v>
+        <v>-0.095915708449748838</v>
       </c>
       <c r="B19" s="0">
-        <v>0.091994839949974594</v>
+        <v>0.095044439314239337</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.08299484049066308</v>
+        <v>-0.086044439746819634</v>
       </c>
       <c r="B20" s="0">
-        <v>0.082813681217837498</v>
+        <v>0.085849308391440005</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043303651627937</v>
+        <v>-0.0090043183126073956</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999994549891937</v>
+        <v>0.008999999563889638</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093947341337054624</v>
+        <v>-0.10526146538581393</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093634591534977218</v>
+        <v>0.10489223697302918</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084634592076020532</v>
+        <v>-0.084637776139916632</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126786776598905</v>
+        <v>0.084127469874738736</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126787566532542</v>
+        <v>-0.042127470501416298</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999205790672</v>
+        <v>0.041999999369862095</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.10603775470244159</v>
+        <v>-0.064634335966946566</v>
       </c>
       <c r="B25" s="0">
-        <v>0.10587360929892853</v>
+        <v>0.064563988247378745</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.099873609840010147</v>
+        <v>-0.058563988689208202</v>
       </c>
       <c r="B26" s="0">
-        <v>0.09966674878597459</v>
+        <v>0.058480184386670686</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.093666749330382881</v>
+        <v>-0.052480184829932774</v>
       </c>
       <c r="B27" s="0">
-        <v>0.092976013250094081</v>
+        <v>0.052216620118171519</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075269332613122408</v>
+        <v>-0.046216620566899458</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074533327375874592</v>
+        <v>0.04605538091451411</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062533327984430898</v>
+        <v>-0.034055381400477813</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062168822484998998</v>
+        <v>0.034000247786483584</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.04216882315576953</v>
+        <v>-0.014000248318793762</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019257291434631</v>
+        <v>0.013889170912190885</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019257931319984</v>
+        <v>0.0011108285820995434</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000702176945168</v>
+        <v>-0.001153556468860728</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.006000702861495455</v>
+        <v>0.02215355592970969</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999994244801513</v>
+        <v>-0.022235973211565785</v>
       </c>
     </row>
   </sheetData>
